--- a/spliced/falling/2023-03-25_18-03-19/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-19/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>0.058643065392971</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0207694191485643</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0707076489925384</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.09605856239795681</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-03-19/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-19/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0368046313524246</v>
+        <v>-0.007177666760981</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0103847095742821</v>
+        <v>0.0068722339347004</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0549778714776039</v>
+        <v>0.0154243474826216</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0694859251379966</v>
+        <v>-0.0125227374956011</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2252565622329712</v>
+        <v>0.0532979927957057</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1149953827261924</v>
+        <v>-0.0287106670439243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.1847867369651794</v>
+        <v>-0.0233655963093042</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4732678532600403</v>
+        <v>0.0858265683054924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2860376536846161</v>
+        <v>0.0064140851609408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2762638032436371</v>
+        <v>-0.0406225398182868</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4453207552433014</v>
+        <v>-0.0181732401251792</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3353650271892547</v>
+        <v>0.0048869219608604</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3854559659957886</v>
+        <v>0.0109955742955207</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3795000314712524</v>
+        <v>-0.015118914656341</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1736384481191635</v>
+        <v>0.0439822971820831</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2231185287237167</v>
+        <v>0.0197004042565822</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2501493096351623</v>
+        <v>-0.0032070425804704</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5458080768585205</v>
+        <v>0.0224492978304624</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.827708840370178</v>
+        <v>0.0274889357388019</v>
       </c>
       <c r="B8" t="n">
-        <v>2.010510206222534</v>
+        <v>0.0001527163112768</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.499036073684692</v>
+        <v>0.0108428578823804</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.6444628238677979</v>
+        <v>0.0339030213654041</v>
       </c>
       <c r="B9" t="n">
-        <v>1.021672129631042</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2196060568094253</v>
+        <v>-0.0473420582711696</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.739730596542358</v>
+        <v>0.0368046313524246</v>
       </c>
       <c r="B10" t="n">
-        <v>0.935998260974884</v>
+        <v>0.0103847095742821</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.772856473922729</v>
+        <v>-0.0549778714776039</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.8069530129432678</v>
+        <v>0.0694859251379966</v>
       </c>
       <c r="B11" t="n">
-        <v>1.669800162315369</v>
+        <v>-0.2252565622329712</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4091269969940185</v>
+        <v>0.1149953827261924</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0166460778564214</v>
+        <v>-0.1847867369651794</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.098960168659687</v>
+        <v>-0.4732678532600403</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0592539273202419</v>
+        <v>0.2860376536846161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.0222965814173221</v>
+        <v>0.2762638032436371</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0245873257517814</v>
+        <v>-0.4453207552433014</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1383609771728515</v>
+        <v>0.3353650271892547</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0693332031369209</v>
+        <v>0.3854559659957886</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1020144969224929</v>
+        <v>-0.3795000314712524</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0342084541916847</v>
+        <v>0.1736384481191635</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.050854530185461</v>
+        <v>0.2231185287237167</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3074179291725158</v>
+        <v>-0.2501493096351623</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2310597747564315</v>
+        <v>-0.5458080768585205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0531452745199203</v>
+        <v>1.827708840370178</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1438587605953216</v>
+        <v>2.010510206222534</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0389426611363887</v>
+        <v>-3.499036073684692</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0024434609804302</v>
+        <v>-0.6444628238677979</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0180205255746841</v>
+        <v>1.021672129631042</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06643159687519069</v>
+        <v>0.2196060568094253</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0386372283101081</v>
+        <v>-2.739730596542358</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0261144898831844</v>
+        <v>0.935998260974884</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2403754740953445</v>
+        <v>-3.772856473922729</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0062613687478005</v>
+        <v>-0.8069530129432678</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1797471046447754</v>
+        <v>1.669800162315369</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1189660057425499</v>
+        <v>-0.4091269969940185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0025961773935705</v>
+        <v>0.0166460778564214</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.09178250283002851</v>
+        <v>-0.098960168659687</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0105374250560998</v>
+        <v>0.0592539273202419</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.0222965814173221</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0245873257517814</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.1383609771728515</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.0693332031369209</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1020144969224929</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0342084541916847</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.050854530185461</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3074179291725158</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2310597747564315</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.0531452745199203</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.1438587605953216</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.0389426611363887</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.0024434609804302</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0180205255746841</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.06643159687519069</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.0386372283101081</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0261144898831844</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2403754740953445</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0062613687478005</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1797471046447754</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1189660057425499</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0025961773935705</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.09178250283002851</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.0105374250560998</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>0.0099265603348612</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B29" t="n">
         <v>0.0328340083360672</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C29" t="n">
         <v>0.058643065392971</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.0207694191485643</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.0707076489925384</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.09605856239795681</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0001527163112768</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0478002056479454</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.06643159687519069</v>
       </c>
     </row>
   </sheetData>
